--- a/dados_graduacao/Tabela2.COTA2.xlsx
+++ b/dados_graduacao/Tabela2.COTA2.xlsx
@@ -38,55 +38,55 @@
     <t xml:space="preserve">Étnica</t>
   </si>
   <si>
-    <t xml:space="preserve">51.4%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.6%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.7%</t>
+    <t xml:space="preserve">51,4%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48,6%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64,7%</t>
   </si>
   <si>
     <t xml:space="preserve">Pessoa com Deficiência</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.8%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1%</t>
+    <t xml:space="preserve">31,2%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68,8%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,1%</t>
   </si>
   <si>
     <t xml:space="preserve">Escola Pública</t>
   </si>
   <si>
-    <t xml:space="preserve">53.8%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.2%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.7%</t>
+    <t xml:space="preserve">53,8%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46,2%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85,7%</t>
   </si>
   <si>
     <t xml:space="preserve">Social / Renda Familiar</t>
   </si>
   <si>
-    <t xml:space="preserve">52.2%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.8%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.6%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.4%</t>
+    <t xml:space="preserve">52,2%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47,8%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20,5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52,6%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47,4%</t>
   </si>
   <si>
     <t xml:space="preserve">100%</t>
